--- a/src/main/resources/OragnizationExcelData.xlsx
+++ b/src/main/resources/OragnizationExcelData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13510" windowHeight="6240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Organization</t>
   </si>
@@ -46,12 +47,16 @@
   </si>
   <si>
     <t>Delhi</t>
+  </si>
+  <si>
+    <t>₹51,999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,53 +391,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.36328125"/>
+    <col min="2" max="2" customWidth="true" width="20.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -445,10 +450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
